--- a/src/test/resources/visitExcelObjectTest.xlsx
+++ b/src/test/resources/visitExcelObjectTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315C9D9-79E6-401E-9148-2D92F4A6875C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045FB7E1-1E61-499B-826C-3297C9C14682}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="189">
   <si>
     <t>ID</t>
   </si>
@@ -524,21 +524,18 @@
     <t>Abbildung</t>
   </si>
   <si>
-    <t>id</t>
+    <t>beschr</t>
   </si>
   <si>
     <t>frei</t>
   </si>
   <si>
+    <t>start</t>
+  </si>
+  <si>
     <t>ende</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>beschr</t>
-  </si>
-  <si>
     <t>pers</t>
   </si>
   <si>
@@ -557,13 +554,19 @@
     <t>ivnr</t>
   </si>
   <si>
+    <t>Passau</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>Passau</t>
-  </si>
-  <si>
     <t>komm</t>
+  </si>
+  <si>
+    <t>id22</t>
+  </si>
+  <si>
+    <t>Objekttitel</t>
   </si>
   <si>
     <t>Freie Datierung -1</t>
@@ -597,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -609,217 +612,186 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -937,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1082,6 +1054,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1398,11 +1373,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,13 +1520,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B16"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,83 +1534,82 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -2226,11 +2200,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2239,11 +2213,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>165</v>
+      <c r="B1" s="144" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2251,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2268,39 +2242,40 @@
       </c>
     </row>
     <row r="5" spans="1:2" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="145" t="s">
         <v>97</v>
       </c>
+      <c r="B5" s="145"/>
     </row>
     <row r="6" spans="1:2" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="140" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="140" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="140" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="140" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="140" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="70">
+      <c r="A9" s="141" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="141">
         <v>19</v>
       </c>
     </row>
@@ -2319,132 +2294,144 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="145"/>
+    </row>
+    <row r="14" spans="1:2" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="140" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="72" t="s">
+    <row r="15" spans="1:2" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="140"/>
+    </row>
+    <row r="16" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="146"/>
+    </row>
+    <row r="17" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="133" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="76" t="s">
+    <row r="19" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="140"/>
+    </row>
+    <row r="22" spans="1:2" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="140" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="78">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="80" t="s">
+    <row r="23" spans="1:2" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="141" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="141"/>
+    </row>
+    <row r="24" spans="1:2" s="82" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="145"/>
+    </row>
+    <row r="25" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="140" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="140"/>
+    </row>
+    <row r="26" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="141" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="141" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="84" t="s">
+    <row r="27" spans="1:2" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="145"/>
+    </row>
+    <row r="28" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="140"/>
+    </row>
+    <row r="29" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="140"/>
+    </row>
+    <row r="30" spans="1:2" s="88" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="140"/>
+    </row>
+    <row r="31" spans="1:2" s="89" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="140" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="32" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="141" t="s">
         <v>118</v>
       </c>
+      <c r="B32" s="141"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -2456,7 +2443,7 @@
         <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2464,7 +2451,7 @@
         <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2473,63 +2460,72 @@
       </c>
     </row>
     <row r="37" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="145" t="s">
         <v>123</v>
       </c>
+      <c r="B37" s="145"/>
     </row>
     <row r="38" spans="1:2" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="146" t="s">
         <v>124</v>
       </c>
+      <c r="B38" s="146"/>
     </row>
     <row r="39" spans="1:2" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="93" t="s">
-        <v>183</v>
-      </c>
+      <c r="A39" s="133" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="133"/>
     </row>
     <row r="40" spans="1:2" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94" t="s">
-        <v>184</v>
-      </c>
+      <c r="A40" s="133" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="133"/>
     </row>
     <row r="41" spans="1:2" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
-        <v>185</v>
-      </c>
+      <c r="A41" s="133" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="133"/>
     </row>
     <row r="42" spans="1:2" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="96" t="s">
-        <v>186</v>
-      </c>
+      <c r="A42" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="133"/>
     </row>
     <row r="43" spans="1:2" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="97">
+      <c r="A43" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="134">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="140" t="s">
         <v>125</v>
       </c>
+      <c r="B44" s="140"/>
     </row>
     <row r="45" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="140" t="s">
         <v>126</v>
       </c>
+      <c r="B45" s="140"/>
     </row>
     <row r="46" spans="1:2" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="140" t="s">
         <v>127</v>
       </c>
+      <c r="B46" s="140"/>
     </row>
     <row r="47" spans="1:2" s="101" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="141" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2548,7 +2544,7 @@
         <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2576,23 +2572,26 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="145" t="s">
         <v>14</v>
       </c>
+      <c r="B56" s="145"/>
     </row>
     <row r="57" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="103" t="s">
+      <c r="A57" s="140" t="s">
         <v>15</v>
       </c>
+      <c r="B57" s="140"/>
     </row>
     <row r="58" spans="1:2" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="141" t="s">
         <v>16</v>
       </c>
+      <c r="B58" s="141"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -2600,56 +2599,95 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B10:SG11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$B$1:$XFD$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="B15 B47 B45" xr:uid="{63551ABB-9C36-4A23-A822-881943787E71}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
             <xm:f>Person!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:SG14 B50:SG50 B46:SG46 B44:SG44</xm:sqref>
+          <xm:sqref>C50:SG50 C46:SG46 C44:SG44 C14:SG14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>Group!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:SG15 B47:SG47 B45:SG45</xm:sqref>
+          <xm:sqref>C47:SG47 C45:SG45 C15:SG15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>Place!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B21:SG21 B52:SG52</xm:sqref>
+          <xm:sqref>C52:SG52 C21:SG21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
             <xm:f>Institution!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B33:SG33 B35:SG35</xm:sqref>
+          <xm:sqref>C35:SG35 C33:SG33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
             <xm:f>Architecture!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B36:SG36 B51:SG51</xm:sqref>
+          <xm:sqref>C51:SG51 C36:SG36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
           <x14:formula1>
             <xm:f>Activity!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B49:SG49 B53:SG53</xm:sqref>
+          <xm:sqref>C53:SG53 C49:SG49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
           <x14:formula1>
             <xm:f>Reference!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B57:SG57</xm:sqref>
+          <xm:sqref>C57:SG57</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{3CF7106E-A162-4070-A16C-72A9E7C32966}">
+          <x14:formula1>
+            <xm:f>Reference!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B57</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{19B80BF2-8D84-486A-9FB1-7F23C6F64AAF}">
+          <x14:formula1>
+            <xm:f>Activity!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B49 B53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C89EB33C-1CB1-4E41-A48A-C32C61830D7E}">
+          <x14:formula1>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B36 B51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C01E04EB-8986-41DE-AF10-DE61356801F7}">
+          <x14:formula1>
+            <xm:f>Institution!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B33 B35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{021BD24C-9AF1-4808-995B-9713150A984E}">
+          <x14:formula1>
+            <xm:f>Place!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21 B52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{4DD166EC-0C45-4499-96BD-0F7BAA778AAB}">
+          <x14:formula1>
+            <xm:f>Person!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14 B50 B46 B44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/visitExcelObjectTest.xlsx
+++ b/src/test/resources/visitExcelObjectTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045FB7E1-1E61-499B-826C-3297C9C14682}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD292B8-7FC6-4196-A885-47E7D51A945A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -561,9 +561,6 @@
   </si>
   <si>
     <t>komm</t>
-  </si>
-  <si>
-    <t>id22</t>
   </si>
   <si>
     <t>Objekttitel</t>
@@ -600,18 +597,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -909,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -975,16 +967,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -992,17 +983,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1012,13 +1003,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1026,37 +1017,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1419,13 +1409,13 @@
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="142"/>
+      <c r="B7" s="141"/>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="143"/>
+      <c r="B8" s="142"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1500,17 +1490,17 @@
           </x14:formula1>
           <xm:sqref>B11:SG11</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16:SG16</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B12:SG12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B16:SG16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1619,23 +1609,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:SG7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:SG15</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3:SG3 B11:SG12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:SG7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:SG15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1974,17 +1964,17 @@
           </x14:formula1>
           <xm:sqref>B47:SG47</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B52:SG52</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000013000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B48:SG48 B55:SG55</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2166,29 +2156,29 @@
           </x14:formula1>
           <xm:sqref>B13:SG14</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21:SG21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B22:SG22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B24:SG24</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B20:SG20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B21:SG21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B22:SG22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B24:SG24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2198,13 +2188,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2212,398 +2202,390 @@
     <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="144" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:2" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="143"/>
+    </row>
     <row r="5" spans="1:2" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="145"/>
+      <c r="A5" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="6" spans="1:2" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="140" t="s">
-        <v>166</v>
+      <c r="B6" s="139" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="140" t="s">
-        <v>167</v>
+      <c r="B7" s="139" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="140" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="141" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="141">
+      <c r="B8" s="140">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B11" t="s">
         <v>165</v>
       </c>
     </row>
+    <row r="12" spans="1:2" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="143"/>
+    </row>
     <row r="13" spans="1:2" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="145"/>
+      <c r="A13" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="139" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14" spans="1:2" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="140" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="140" t="s">
-        <v>169</v>
-      </c>
+      <c r="A14" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="139"/>
     </row>
     <row r="15" spans="1:2" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="140"/>
+      <c r="A15" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="144"/>
     </row>
     <row r="16" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="146" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="146"/>
+      <c r="A16" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="132" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="17" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="133" t="s">
-        <v>166</v>
+      <c r="A17" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="132" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>170</v>
+      <c r="A18" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="132" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="133" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="133" t="s">
-        <v>168</v>
+        <v>107</v>
+      </c>
+      <c r="B19" s="133">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="134" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="134">
-        <v>18</v>
-      </c>
+      <c r="A20" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="139"/>
     </row>
     <row r="21" spans="1:2" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="140"/>
+      <c r="A21" s="139" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="139" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="22" spans="1:2" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="140" t="s">
-        <v>171</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B22" s="140"/>
     </row>
     <row r="23" spans="1:2" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="141"/>
+      <c r="A23" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="143"/>
     </row>
     <row r="24" spans="1:2" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="145"/>
+      <c r="A24" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="139"/>
     </row>
     <row r="25" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="140" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="140"/>
+        <v>113</v>
+      </c>
+      <c r="B25" s="140" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="26" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="141" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="141" t="s">
-        <v>172</v>
-      </c>
+      <c r="A26" s="143" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="143"/>
     </row>
     <row r="27" spans="1:2" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="145"/>
+      <c r="A27" s="139" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="139"/>
     </row>
     <row r="28" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="140" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="140"/>
+      <c r="A28" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="139"/>
     </row>
     <row r="29" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="140"/>
+      <c r="A29" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="139"/>
     </row>
     <row r="30" spans="1:2" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="140" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="140"/>
+      <c r="A30" s="139" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="139" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="31" spans="1:2" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="140" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="141"/>
+      <c r="B31" s="140"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="36" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="143"/>
+    </row>
     <row r="37" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="145" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="145"/>
+      <c r="A37" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="144"/>
     </row>
     <row r="38" spans="1:2" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="146" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="146"/>
+      <c r="A38" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="132"/>
     </row>
     <row r="39" spans="1:2" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="133"/>
+      <c r="B39" s="132"/>
     </row>
     <row r="40" spans="1:2" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="133" t="s">
+      <c r="A40" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="133"/>
+      <c r="B40" s="132"/>
     </row>
     <row r="41" spans="1:2" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="133"/>
+      <c r="B41" s="132"/>
     </row>
     <row r="42" spans="1:2" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="133"/>
+      <c r="B42" s="133">
+        <v>20</v>
+      </c>
     </row>
     <row r="43" spans="1:2" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="134">
-        <v>20</v>
-      </c>
+      <c r="A43" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="139"/>
     </row>
     <row r="44" spans="1:2" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="140" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="140"/>
+      <c r="A44" s="139" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="139"/>
     </row>
     <row r="45" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="140" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="140"/>
+      <c r="A45" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="139"/>
     </row>
     <row r="46" spans="1:2" s="100" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="140" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="140"/>
-    </row>
-    <row r="47" spans="1:2" s="101" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="141" t="s">
+      <c r="B46" s="140" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
         <v>13</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B54" t="s">
         <v>177</v>
       </c>
     </row>
+    <row r="55" spans="1:2" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="143"/>
+    </row>
     <row r="56" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="145" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="145"/>
+      <c r="A56" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="139"/>
     </row>
     <row r="57" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57" s="140"/>
     </row>
-    <row r="58" spans="1:2" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="141" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="141"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="B10:SG11" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>$B$1:$XFD$1</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="B9:SG10" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B15 B47 B45" xr:uid="{63551ABB-9C36-4A23-A822-881943787E71}">
+    <dataValidation type="list" allowBlank="1" sqref="B14 B46 B44" xr:uid="{63551ABB-9C36-4A23-A822-881943787E71}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2615,79 +2597,79 @@
           <x14:formula1>
             <xm:f>Person!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C50:SG50 C46:SG46 C44:SG44 C14:SG14</xm:sqref>
+          <xm:sqref>C49:SG49 C45:SG45 C43:SG43 C13:SG13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>Group!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C47:SG47 C45:SG45 C15:SG15</xm:sqref>
+          <xm:sqref>C46:SG46 C44:SG44 C14:SG14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>Place!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C52:SG52 C21:SG21</xm:sqref>
+          <xm:sqref>C51:SG51 C20:SG20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
             <xm:f>Institution!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C35:SG35 C33:SG33</xm:sqref>
+          <xm:sqref>C34:SG34 C32:SG32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
             <xm:f>Architecture!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C51:SG51 C36:SG36</xm:sqref>
+          <xm:sqref>C50:SG50 C35:SG35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
           <x14:formula1>
             <xm:f>Activity!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C53:SG53 C49:SG49</xm:sqref>
+          <xm:sqref>C52:SG52 C48:SG48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
           <x14:formula1>
             <xm:f>Reference!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C57:SG57</xm:sqref>
+          <xm:sqref>C56:SG56</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{3CF7106E-A162-4070-A16C-72A9E7C32966}">
           <x14:formula1>
             <xm:f>Reference!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B57</xm:sqref>
+          <xm:sqref>B56</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{19B80BF2-8D84-486A-9FB1-7F23C6F64AAF}">
           <x14:formula1>
             <xm:f>Activity!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B49 B53</xm:sqref>
+          <xm:sqref>B48 B52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{C89EB33C-1CB1-4E41-A48A-C32C61830D7E}">
           <x14:formula1>
             <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B36 B51</xm:sqref>
+          <xm:sqref>B35 B50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{C01E04EB-8986-41DE-AF10-DE61356801F7}">
           <x14:formula1>
             <xm:f>Institution!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B33 B35</xm:sqref>
+          <xm:sqref>B32 B34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{021BD24C-9AF1-4808-995B-9713150A984E}">
           <x14:formula1>
             <xm:f>Place!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B21 B52</xm:sqref>
+          <xm:sqref>B20 B51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{4DD166EC-0C45-4499-96BD-0F7BAA778AAB}">
           <x14:formula1>
             <xm:f>Person!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B14 B50 B46 B44</xm:sqref>
+          <xm:sqref>B13 B49 B45 B43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2711,8 +2693,8 @@
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:1" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2796,8 +2778,8 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2826,83 +2808,83 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="106" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+    <row r="9" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+    <row r="11" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
+    <row r="12" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113" t="s">
+    <row r="13" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+    <row r="14" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="113" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
+    <row r="15" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116" t="s">
+    <row r="16" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117" t="s">
+    <row r="17" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="116" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118" t="s">
+    <row r="18" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="117" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+    <row r="19" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="118" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="120" t="s">
+    <row r="20" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="119" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
+    <row r="21" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122" t="s">
+    <row r="22" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="121" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2921,63 +2903,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+    <row r="26" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="122" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124" t="s">
+    <row r="27" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="123" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125" t="s">
+    <row r="28" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="124" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126" t="s">
+    <row r="29" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="125" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="127" t="s">
+    <row r="30" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="128" t="s">
+    <row r="31" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="127" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129" t="s">
+    <row r="32" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="128" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="130" t="s">
+    <row r="33" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="131" t="s">
+    <row r="34" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="130" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="132" t="s">
+    <row r="35" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="131" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="133" t="s">
+    <row r="36" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="132" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="134" t="s">
+    <row r="37" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="133" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3046,18 +3028,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="135" t="s">
+    <row r="51" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="134" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136" t="s">
+    <row r="52" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="135" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
+    <row r="53" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="136" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3099,17 +3081,17 @@
           </x14:formula1>
           <xm:sqref>B40:SG40</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B52:SG52</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000B000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B55:SG55 B47:SG48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3121,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3133,8 +3115,8 @@
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3178,18 +3160,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140" t="s">
+    <row r="11" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="139" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
+    <row r="12" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="140" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3234,7 +3216,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B14:SG14</xm:sqref>
         </x14:dataValidation>

--- a/src/test/resources/visitExcelObjectTest.xlsx
+++ b/src/test/resources/visitExcelObjectTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD292B8-7FC6-4196-A885-47E7D51A945A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED94EEA-7897-4D11-ADF7-2D41D3949306}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -591,6 +591,39 @@
   </si>
   <si>
     <t>Jahrhundert -2</t>
+  </si>
+  <si>
+    <t>Teilobjekte</t>
+  </si>
+  <si>
+    <t>Teilobjektvon</t>
+  </si>
+  <si>
+    <t>Insti</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>freie</t>
+  </si>
+  <si>
+    <t>gestern</t>
+  </si>
+  <si>
+    <t>übermorgen</t>
+  </si>
+  <si>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>Bezug</t>
+  </si>
+  <si>
+    <t>Aktivität</t>
+  </si>
+  <si>
+    <t>Links2</t>
   </si>
 </sst>
 </file>
@@ -820,7 +853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -897,11 +930,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1047,6 +1091,9 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2190,16 +2237,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2214,6 +2262,9 @@
       <c r="A2" t="s">
         <v>96</v>
       </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2265,11 +2316,17 @@
       <c r="A9" t="s">
         <v>98</v>
       </c>
+      <c r="B9" s="145" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
+      <c r="B10" s="145" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2341,7 +2398,9 @@
       <c r="A20" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="139"/>
+      <c r="B20" s="139" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:2" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="139" t="s">
@@ -2355,7 +2414,9 @@
       <c r="A22" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="140"/>
+      <c r="B22" s="140" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:2" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="143" t="s">
@@ -2367,7 +2428,9 @@
       <c r="A24" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="139"/>
+      <c r="B24" s="139" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="25" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="140" t="s">
@@ -2387,19 +2450,25 @@
       <c r="A27" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="139"/>
+      <c r="B27" s="139" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="139"/>
+      <c r="B28" s="139" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="29" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="139"/>
+      <c r="B29" s="139" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="30" spans="1:2" s="88" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="139" t="s">
@@ -2413,12 +2482,17 @@
       <c r="A31" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="140"/>
+      <c r="B31" s="140" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>119</v>
       </c>
+      <c r="B32" s="146" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -2440,6 +2514,9 @@
       <c r="A35" t="s">
         <v>122</v>
       </c>
+      <c r="B35" s="145" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="36" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="143" t="s">
@@ -2457,25 +2534,33 @@
       <c r="A38" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="132"/>
+      <c r="B38" s="147">
+        <v>43546</v>
+      </c>
     </row>
     <row r="39" spans="1:2" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="132"/>
+      <c r="B39" s="132" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="40" spans="1:2" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="132"/>
+      <c r="B40" s="132" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="41" spans="1:2" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="132"/>
+      <c r="B41" s="132" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="42" spans="1:2" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="133" t="s">
@@ -2489,19 +2574,25 @@
       <c r="A43" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="139"/>
+      <c r="B43" s="139" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="44" spans="1:2" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="139"/>
+      <c r="B44" s="139" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="45" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="139"/>
+      <c r="B45" s="139" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="46" spans="1:2" s="100" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="140" t="s">
@@ -2515,11 +2606,17 @@
       <c r="A47" t="s">
         <v>72</v>
       </c>
+      <c r="B47" s="146" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>129</v>
       </c>
+      <c r="B48" s="146" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -2533,21 +2630,33 @@
       <c r="A50" t="s">
         <v>131</v>
       </c>
+      <c r="B50" s="145" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>132</v>
       </c>
+      <c r="B51" s="145" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>133</v>
       </c>
+      <c r="B52" s="145" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
+      <c r="B53" s="145" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -2567,17 +2676,24 @@
       <c r="A56" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="139"/>
+      <c r="B56" s="139" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="140"/>
+      <c r="B57" s="140" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
+      </c>
+      <c r="B58" s="145" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
